--- a/data_model/小麻雀表设计.xlsx
+++ b/data_model/小麻雀表设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mobileArtMuseum\mobileMuseumOfArtWebsite\data_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5CAE3FC8-9599-4986-BFE6-23A42157F9A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF8E91D0-440F-497E-AD7B-3B0FF013A0E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="176">
   <si>
     <t>列名称</t>
   </si>
@@ -78,12 +78,6 @@
     <t>性别</t>
   </si>
   <si>
-    <t>cahr</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
@@ -99,18 +93,12 @@
     <t>个人简介</t>
   </si>
   <si>
-    <t>clob</t>
-  </si>
-  <si>
     <t>违约次数</t>
   </si>
   <si>
     <t>上次登录时间</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>是否已验证</t>
   </si>
   <si>
@@ -201,30 +189,15 @@
     <t>项目是由哪个学生完成的</t>
   </si>
   <si>
-    <t>项目创建时间</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>项目完成时间</t>
   </si>
   <si>
-    <t>图片地址</t>
-  </si>
-  <si>
     <t>作品表</t>
   </si>
   <si>
     <t>作品名称</t>
   </si>
   <si>
-    <t>作品上传时间</t>
-  </si>
-  <si>
-    <t>作品下架时间</t>
-  </si>
-  <si>
     <t>订单表</t>
   </si>
   <si>
@@ -240,9 +213,6 @@
     <t>金额</t>
   </si>
   <si>
-    <t>交易生成时间</t>
-  </si>
-  <si>
     <t>交易完成时间</t>
   </si>
   <si>
@@ -253,9 +223,6 @@
   </si>
   <si>
     <t>附件路径</t>
-  </si>
-  <si>
-    <t>上传时间</t>
   </si>
   <si>
     <t>附件大小</t>
@@ -548,7 +515,7 @@
   </si>
   <si>
     <r>
-      <t>create</t>
+      <t>finish</t>
     </r>
     <r>
       <rPr>
@@ -575,8 +542,16 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>finish</t>
+    <t>project_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>stu</t>
     </r>
     <r>
       <rPr>
@@ -587,7 +562,71 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>dent_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生投标的作品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ork_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>describe</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
     </r>
     <r>
       <rPr>
@@ -598,13 +637,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>time</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>img</t>
+      <t>ork_</t>
     </r>
     <r>
       <rPr>
@@ -615,7 +648,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_</t>
+      <t>status</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0：个人作品</t>
     </r>
     <r>
       <rPr>
@@ -626,21 +677,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>url</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>stu</t>
+      <t xml:space="preserve"> 1：投标 2：中标 3：交易成功</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品报价</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>usiness_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -651,21 +718,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dent_id</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生投标的作品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
+      <t>tudent_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>attach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -675,7 +762,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>ork_</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -685,17 +772,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>describe</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>work</t>
+      <t>tach</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -705,17 +787,18 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>path</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>at</t>
     </r>
     <r>
       <rPr>
@@ -726,7 +809,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ork_</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -737,29 +820,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>status</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>clob</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0：个人作品</t>
+      <t>ach</t>
     </r>
     <r>
       <rPr>
@@ -770,45 +831,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1：投标 2：中标 3：交易成功</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品报价</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish_time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>usiness_id</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -819,88 +842,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tudent_id</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>attach</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tach</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>path</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>at</t>
-    </r>
+      <t>size</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -910,7 +856,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>t</t>
+      <t>student_</t>
     </r>
     <r>
       <rPr>
@@ -921,7 +867,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ach</t>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -932,7 +884,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_</t>
+      <t>usiness_</t>
     </r>
     <r>
       <rPr>
@@ -943,11 +895,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>size</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>project</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -957,7 +912,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>student_</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -974,7 +929,7 @@
   </si>
   <si>
     <r>
-      <t>b</t>
+      <t>work</t>
     </r>
     <r>
       <rPr>
@@ -985,7 +940,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>usiness_</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -1001,8 +956,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>project</t>
+    <t>student</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -1013,7 +972,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_</t>
+      <t>usiness</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -1024,90 +1001,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>student</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>usiness</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>ender</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>works</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1333,10 +1228,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>imgurl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>h</t>
     </r>
@@ -1422,10 +1313,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>clob</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>申诉id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1435,6 +1322,137 @@
   </si>
   <si>
     <t>works_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned bigint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_create</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_time</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ecimal</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_modified</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vatar</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>申诉i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,7 +1699,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1781,6 +1798,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2088,26 +2116,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="13" max="13" width="41.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>135</v>
+      <c r="A1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2119,7 +2147,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="22"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2138,10 +2166,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
@@ -2170,14 +2198,12 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8">
-        <v>36</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="25" t="s">
-        <v>91</v>
+      <c r="F3" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="9"/>
@@ -2187,11 +2213,13 @@
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>149</v>
+      <c r="A4" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>15</v>
@@ -2199,12 +2227,10 @@
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
-        <v>100</v>
-      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="10"/>
@@ -2213,21 +2239,19 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>161</v>
+      <c r="A5" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="12">
-        <v>32</v>
-      </c>
+      <c r="D5" s="12"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
@@ -2236,90 +2260,86 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>162</v>
+      <c r="A6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>144</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12">
-        <v>32</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="A7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D8" s="8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8">
-        <v>100</v>
-      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2328,19 +2348,19 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>148</v>
+      <c r="A10" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2349,19 +2369,19 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>89</v>
+      <c r="A11" s="26" t="s">
+        <v>131</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2370,19 +2390,19 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>150</v>
+      <c r="A12" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2391,284 +2411,280 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>90</v>
+      <c r="A13" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
       <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="M14" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C21" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8">
-        <v>36</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="12">
-        <v>32</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="12">
-        <v>32</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="8">
-        <v>100</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="24">
-        <v>100</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="24">
-        <v>100</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>34</v>
+      <c r="A26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="8">
-        <v>100</v>
-      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="10"/>
@@ -2677,331 +2693,326 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D27" s="8">
-        <v>50</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>90</v>
+      <c r="A30" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8">
         <v>0</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="22"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="8">
-        <v>36</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10" t="s">
+      <c r="C40" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="8">
-        <v>36</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="22"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="8">
-        <v>36</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="A41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="10" t="s">
         <v>14</v>
       </c>
@@ -3010,150 +3021,140 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="8">
-        <v>100</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="A42" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="22"/>
+      <c r="A43" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E47" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="6" t="s">
+      <c r="F47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="6" t="s">
+      <c r="M47" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="8">
-        <v>36</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-    </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="8">
-        <v>36</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="A48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="10" t="s">
         <v>14</v>
       </c>
@@ -3162,425 +3163,426 @@
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
+      <c r="A49" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="22"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A50" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="F55" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="M55" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="8">
-        <v>36</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10" t="s">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="8">
-        <v>100</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="8">
-        <v>100</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="8">
-        <v>36</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="10"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="22"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A57" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="21"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H61" s="6" t="s">
+      <c r="F63" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J61" s="6" t="s">
+      <c r="J63" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K63" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L61" s="6" t="s">
+      <c r="L63" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M61" s="6" t="s">
+      <c r="M63" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="8">
-        <v>36</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10" t="s">
+      <c r="C64" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="8">
-        <v>100</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="10"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="23">
-        <v>2</v>
-      </c>
-      <c r="E65" s="23"/>
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23">
-        <v>1</v>
-      </c>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23" t="s">
-        <v>54</v>
-      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>55</v>
+      <c r="A66" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="8">
-        <v>36</v>
-      </c>
-      <c r="E66" s="23"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23" t="s">
-        <v>56</v>
+      <c r="G66" s="23"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="23"/>
+      <c r="A67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
     </row>
     <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>61</v>
+      <c r="A68" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="24"/>
+        <v>163</v>
+      </c>
+      <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
@@ -3591,19 +3593,17 @@
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>62</v>
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="23">
-        <v>200</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
@@ -3615,12 +3615,23 @@
       <c r="M69" s="23"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>140</v>
-      </c>
+      <c r="A72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="21"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -3638,11 +3649,11 @@
       <c r="E73" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="33" t="s">
-        <v>87</v>
+      <c r="F73" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>5</v>
@@ -3663,331 +3674,349 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="24" t="s">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="24">
-        <v>36</v>
-      </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="25" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="22">
+        <v>2</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22">
+        <v>1</v>
+      </c>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+    </row>
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+    </row>
+    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="38"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="38"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="38"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-    </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="24">
-        <v>36</v>
-      </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="8">
-        <v>36</v>
-      </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="22"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="B84" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="H83" s="6" t="s">
+      <c r="F85" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J83" s="6" t="s">
+      <c r="J85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="6" t="s">
+      <c r="K85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="6" t="s">
+      <c r="L85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M83" s="6" t="s">
+      <c r="M85" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="8">
-        <v>36</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="8">
-        <v>100</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
+    <row r="86" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" s="23"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
     </row>
     <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D87" s="23">
-        <v>2</v>
-      </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>65</v>
+      <c r="A87" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="23"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>66</v>
+        <v>160</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -4000,15 +4029,15 @@
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>123</v>
+    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -4021,35 +4050,42 @@
       <c r="L90" s="23"/>
       <c r="M90" s="23"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="23">
-        <v>200</v>
-      </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
+    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>142</v>
+        <v>56</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4061,7 +4097,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="22"/>
+      <c r="M94" s="21"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -4079,11 +4115,11 @@
       <c r="E95" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G95" s="32" t="s">
-        <v>87</v>
+      <c r="F95" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>5</v>
@@ -4111,15 +4147,13 @@
       <c r="B96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="8">
-        <v>36</v>
-      </c>
+      <c r="C96" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="8"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="25" t="s">
-        <v>91</v>
+      <c r="F96" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="9"/>
@@ -4132,146 +4166,126 @@
       <c r="M96" s="8"/>
     </row>
     <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>52</v>
+      <c r="A97" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="8">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="10"/>
-      <c r="K97" s="8">
-        <v>1</v>
-      </c>
+      <c r="K97" s="8"/>
       <c r="L97" s="8"/>
-      <c r="M97" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="M97" s="8"/>
     </row>
     <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+    </row>
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A99" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="22">
+        <v>2</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="12">
-        <v>36</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-    </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="23">
-        <v>36</v>
-      </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-    </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="12">
-        <v>36</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
+      <c r="C100" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
     </row>
     <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="12">
-        <v>36</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+    </row>
+    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C102" s="38" t="s">
-        <v>123</v>
+        <v>169</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="D102" s="23"/>
-      <c r="E102" s="23">
-        <v>2</v>
-      </c>
+      <c r="E102" s="23"/>
       <c r="F102" s="23"/>
       <c r="G102" s="23"/>
       <c r="H102" s="23"/>
@@ -4281,491 +4295,837 @@
       <c r="L102" s="23"/>
       <c r="M102" s="23"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="23" t="s">
+    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="57"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="60"/>
+    </row>
+    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="57"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="60"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="21"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+    </row>
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="8">
+        <v>2</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="8">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="22"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="6" t="s">
+    </row>
+    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A109" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" s="12"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+    </row>
+    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A110" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+    </row>
+    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A112" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22">
         <v>2</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G108" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L108" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="8">
-        <v>36</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-    </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="8">
-        <v>100</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-    </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="12">
-        <v>100</v>
-      </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-    </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A112" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="23"/>
-      <c r="M112" s="23"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23"/>
-    </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A114" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="8">
-        <v>36</v>
-      </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23" t="s">
-        <v>79</v>
-      </c>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
     </row>
     <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="8">
-        <v>36</v>
-      </c>
+      <c r="A115" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
-      <c r="G115" s="25" t="s">
-        <v>91</v>
-      </c>
+      <c r="G115" s="23"/>
       <c r="H115" s="23"/>
       <c r="I115" s="23"/>
       <c r="J115" s="23"/>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
-      <c r="M115" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="M115" s="23"/>
     </row>
     <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A116" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="8">
-        <v>36</v>
-      </c>
+      <c r="A116" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="23"/>
-      <c r="G116" s="25" t="s">
-        <v>91</v>
-      </c>
+      <c r="G116" s="23"/>
       <c r="H116" s="23"/>
       <c r="I116" s="23"/>
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
-      <c r="M116" s="23" t="s">
-        <v>82</v>
-      </c>
+      <c r="M116" s="23"/>
     </row>
     <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" s="7" t="s">
+      <c r="A117" s="57"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="59"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="59"/>
+      <c r="K117" s="59"/>
+      <c r="L117" s="59"/>
+      <c r="M117" s="60"/>
+    </row>
+    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A118" s="57"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="60"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="21"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+    </row>
+    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="8">
-        <v>36</v>
-      </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H117" s="23"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="23"/>
-      <c r="M117" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="23"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B121" s="35" t="s">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+    </row>
+    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A123" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="12"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+    </row>
+    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A126" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A127" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A128" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H128" s="22"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="23"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+    </row>
+    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+    </row>
+    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="21"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G134" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A135" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="50"/>
+      <c r="E135" s="40"/>
+      <c r="F135" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G135" s="47"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+    </row>
+    <row r="136" spans="1:13" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" s="48"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H136" s="54"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="54"/>
+      <c r="L136" s="54"/>
+      <c r="M136" s="54"/>
+    </row>
+    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A137" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C137" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="22"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G122" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I122" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L122" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M122" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" s="43" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A123" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B123" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="51">
-        <v>36</v>
-      </c>
-      <c r="E123" s="41"/>
-      <c r="F123" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G123" s="48"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-    </row>
-    <row r="124" spans="1:13" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A124" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B124" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C124" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="49">
-        <v>36</v>
-      </c>
-      <c r="E124" s="55"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H124" s="55"/>
-      <c r="I124" s="55"/>
-      <c r="J124" s="55"/>
-      <c r="K124" s="55"/>
-      <c r="L124" s="55"/>
-      <c r="M124" s="55"/>
-    </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A125" s="46" t="s">
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="22"/>
+    </row>
+    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="23"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="23"/>
+      <c r="M138" s="23"/>
+    </row>
+    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B125" s="52" t="s">
+      <c r="B139" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C125" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
-      <c r="M125" s="23"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="23"/>
-      <c r="M126" s="23"/>
+      <c r="C139" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="23"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="23"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data_model/小麻雀表设计.xlsx
+++ b/data_model/小麻雀表设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mobileArtMuseum\mobileMuseumOfArtWebsite\data_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BF8E91D0-440F-497E-AD7B-3B0FF013A0E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94203BD4-7E9A-4308-9FE7-B8C65F86A3DC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="191">
   <si>
     <t>列名称</t>
   </si>
@@ -1305,14 +1305,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>order_describe</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>申诉id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1453,6 +1445,118 @@
       </rPr>
       <t>d</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>申述描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>complain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_descri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ption</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ork_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ser_id</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关系表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_relation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>被关注对象id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:被关注  0：粉丝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1460,7 +1564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1559,6 +1663,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1635,15 +1746,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1767,9 +1881,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1811,8 +1922,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
@@ -2116,15 +2234,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="13" max="13" width="41.77734375" customWidth="1"/>
@@ -2198,7 +2316,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="6"/>
@@ -2214,7 +2332,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
@@ -2282,13 +2400,13 @@
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="23"/>
@@ -2300,7 +2418,7 @@
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
@@ -2311,7 +2429,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
@@ -2376,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2397,7 +2515,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2418,7 +2536,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2439,11 +2557,9 @@
         <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -2460,13 +2576,13 @@
     </row>
     <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2481,13 +2597,13 @@
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -2568,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="6"/>
@@ -2593,7 +2709,7 @@
         <v>135</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="6"/>
@@ -2650,13 +2766,13 @@
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="23"/>
@@ -2668,7 +2784,7 @@
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
@@ -2784,7 +2900,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2805,7 +2921,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2825,8 +2941,8 @@
       <c r="B33" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>26</v>
+      <c r="C33" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="D33" s="8">
         <v>2</v>
@@ -2845,7 +2961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="55" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>85</v>
       </c>
@@ -2853,7 +2969,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -2870,13 +2986,13 @@
     </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -2891,13 +3007,13 @@
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -2978,7 +3094,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="6"/>
@@ -3003,7 +3119,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3022,13 +3138,13 @@
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
@@ -3043,13 +3159,13 @@
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -3145,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="6"/>
@@ -3185,13 +3301,13 @@
     </row>
     <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -3206,13 +3322,13 @@
     </row>
     <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -3308,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="6"/>
@@ -3333,7 +3449,7 @@
         <v>37</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3352,13 +3468,13 @@
     </row>
     <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -3373,13 +3489,13 @@
     </row>
     <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -3490,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="6"/>
@@ -3574,13 +3690,13 @@
     </row>
     <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -3595,13 +3711,13 @@
     </row>
     <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -3682,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="6"/>
@@ -3728,7 +3844,7 @@
         <v>47</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="8"/>
@@ -3776,7 +3892,7 @@
         <v>51</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="22"/>
@@ -3801,7 +3917,7 @@
         <v>55</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="22"/>
@@ -3816,13 +3932,13 @@
     </row>
     <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
@@ -3837,13 +3953,13 @@
     </row>
     <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -3858,7 +3974,7 @@
     </row>
     <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
-      <c r="B82" s="56"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -3873,7 +3989,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
-      <c r="B83" s="56"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -3943,7 +4059,7 @@
         <v>96</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="40"/>
@@ -3960,13 +4076,13 @@
     </row>
     <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B87" s="37" t="s">
         <v>98</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="22"/>
@@ -3991,7 +4107,7 @@
         <v>53</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="22"/>
@@ -4010,13 +4126,13 @@
     </row>
     <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -4031,13 +4147,13 @@
     </row>
     <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -4085,7 +4201,7 @@
         <v>56</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4148,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="6"/>
@@ -4194,7 +4310,7 @@
         <v>103</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="8"/>
@@ -4240,7 +4356,7 @@
         <v>108</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="22"/>
@@ -4255,13 +4371,13 @@
     </row>
     <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -4276,13 +4392,13 @@
     </row>
     <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
@@ -4296,34 +4412,34 @@
       <c r="M102" s="23"/>
     </row>
     <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="60"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="59"/>
     </row>
     <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="60"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="58"/>
+      <c r="J104" s="58"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="58"/>
+      <c r="M104" s="59"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -4393,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="6"/>
@@ -4445,7 +4561,7 @@
         <v>96</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="23"/>
@@ -4468,7 +4584,7 @@
         <v>53</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="22"/>
@@ -4491,7 +4607,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="23"/>
@@ -4514,7 +4630,7 @@
         <v>51</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="8"/>
@@ -4537,7 +4653,7 @@
         <v>62</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="22">
@@ -4560,7 +4676,7 @@
         <v>63</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="22"/>
@@ -4575,13 +4691,13 @@
     </row>
     <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
@@ -4596,13 +4712,13 @@
     </row>
     <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
@@ -4616,34 +4732,34 @@
       <c r="M116" s="23"/>
     </row>
     <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="59"/>
-      <c r="I117" s="59"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
-      <c r="L117" s="59"/>
-      <c r="M117" s="60"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="58"/>
+      <c r="J117" s="58"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="58"/>
+      <c r="M117" s="59"/>
     </row>
     <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="59"/>
-      <c r="I118" s="59"/>
-      <c r="J118" s="59"/>
-      <c r="K118" s="59"/>
-      <c r="L118" s="59"/>
-      <c r="M118" s="60"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="58"/>
+      <c r="M118" s="59"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -4713,7 +4829,7 @@
         <v>12</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="6"/>
@@ -4780,7 +4896,7 @@
         <v>67</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="22"/>
@@ -4801,7 +4917,7 @@
         <v>53</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="22"/>
@@ -4826,7 +4942,7 @@
         <v>51</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="22"/>
@@ -4851,7 +4967,7 @@
         <v>70</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="22"/>
@@ -4876,7 +4992,7 @@
         <v>72</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="22"/>
@@ -4895,13 +5011,13 @@
     </row>
     <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D129" s="23"/>
       <c r="E129" s="22"/>
@@ -4918,13 +5034,13 @@
     </row>
     <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
@@ -4939,13 +5055,13 @@
     </row>
     <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
@@ -4993,10 +5109,10 @@
       <c r="E134" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F134" s="46" t="s">
+      <c r="F134" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="G134" s="46" t="s">
+      <c r="G134" s="45" t="s">
         <v>76</v>
       </c>
       <c r="H134" s="6" t="s">
@@ -5020,20 +5136,20 @@
     </row>
     <row r="135" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="50"/>
+        <v>158</v>
+      </c>
+      <c r="D135" s="49"/>
       <c r="E135" s="40"/>
       <c r="F135" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G135" s="47"/>
+      <c r="G135" s="46"/>
       <c r="H135" s="40"/>
       <c r="I135" s="40"/>
       <c r="J135" s="40"/>
@@ -5041,38 +5157,38 @@
       <c r="L135" s="40"/>
       <c r="M135" s="40"/>
     </row>
-    <row r="136" spans="1:13" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A136" s="52" t="s">
+    <row r="136" spans="1:13" s="48" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A136" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="B136" s="53" t="s">
+      <c r="B136" s="52" t="s">
         <v>150</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D136" s="48"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="54"/>
+        <v>158</v>
+      </c>
+      <c r="D136" s="47"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
       <c r="G136" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H136" s="54"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="54"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="54"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="53"/>
+      <c r="K136" s="53"/>
+      <c r="L136" s="53"/>
+      <c r="M136" s="53"/>
     </row>
     <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B137" s="51" t="s">
-        <v>152</v>
+      <c r="A137" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>174</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
@@ -5087,13 +5203,13 @@
     </row>
     <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A138" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
@@ -5108,13 +5224,13 @@
     </row>
     <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
@@ -5126,6 +5242,321 @@
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="21"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G142" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A143" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D143" s="49"/>
+      <c r="E143" s="40"/>
+      <c r="G143" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="40"/>
+      <c r="L143" s="40"/>
+      <c r="M143" s="40"/>
+    </row>
+    <row r="144" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A144" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144" s="49"/>
+      <c r="E144" s="40"/>
+      <c r="G144" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+    </row>
+    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A145" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="23"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="23"/>
+    </row>
+    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A146" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="23"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="21"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G149" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A150" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="49"/>
+      <c r="E150" s="40"/>
+      <c r="G150" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H150" s="40"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="40"/>
+      <c r="L150" s="40"/>
+      <c r="M150" s="40"/>
+    </row>
+    <row r="151" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A151" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" s="49"/>
+      <c r="E151" s="40"/>
+      <c r="G151" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="40"/>
+      <c r="L151" s="40"/>
+      <c r="M151" s="40"/>
+    </row>
+    <row r="152" spans="1:13" s="42" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A152" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" s="49"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="40"/>
+      <c r="L152" s="40"/>
+      <c r="M152" s="61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A153" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="23"/>
+      <c r="L153" s="23"/>
+      <c r="M153" s="23"/>
+    </row>
+    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A154" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
